--- a/Genomic Selection_SALVA/results/genetic_correlation_formula.xlsx
+++ b/Genomic Selection_SALVA/results/genetic_correlation_formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\GitHub\Genomic-Selection\Genomic Selection_SALVA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086BA258-C644-40FC-8005-CDB0AD91E8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A74904A-2748-40F2-84F2-F02971DCC944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84681E04-350C-41A0-8BF5-2C9C58288F4D}"/>
+    <workbookView xWindow="16044" yWindow="2340" windowWidth="20016" windowHeight="8964" xr2:uid="{84681E04-350C-41A0-8BF5-2C9C58288F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Rg =</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Hy =</t>
   </si>
   <si>
-    <t>AUDPC vs field</t>
-  </si>
-  <si>
     <t>R18 vs R19</t>
   </si>
   <si>
@@ -60,26 +57,86 @@
     <t>R19 vs R20</t>
   </si>
   <si>
-    <t>IF vs field</t>
-  </si>
-  <si>
-    <t>IT vs field</t>
-  </si>
-  <si>
-    <t>DS vs field</t>
-  </si>
-  <si>
-    <t>Index vs field</t>
+    <t>R18 vs mega</t>
+  </si>
+  <si>
+    <t>AUDPC vs R18</t>
+  </si>
+  <si>
+    <t>IF vs R18</t>
+  </si>
+  <si>
+    <t>IF vs R19</t>
+  </si>
+  <si>
+    <t>IF vs R20</t>
+  </si>
+  <si>
+    <t>DS vs R18</t>
+  </si>
+  <si>
+    <t>IT vs R18</t>
+  </si>
+  <si>
+    <t>R19 vs mega</t>
+  </si>
+  <si>
+    <t>AUDPC vs R19</t>
+  </si>
+  <si>
+    <t>DS vs R19</t>
+  </si>
+  <si>
+    <t>IT vs R19</t>
+  </si>
+  <si>
+    <t>R20 vs mega</t>
+  </si>
+  <si>
+    <t>AUDPC vs mega</t>
+  </si>
+  <si>
+    <t>IF vs mega</t>
+  </si>
+  <si>
+    <t>DS vs mega</t>
+  </si>
+  <si>
+    <t>IT vs mega</t>
+  </si>
+  <si>
+    <t>IF vs audpc</t>
+  </si>
+  <si>
+    <t>DS vs audpc</t>
+  </si>
+  <si>
+    <t>IT vs audpc</t>
+  </si>
+  <si>
+    <t>DS vs if</t>
+  </si>
+  <si>
+    <t>IT vs if</t>
+  </si>
+  <si>
+    <t>IT vs ds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,22 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE91F5B-D729-47DF-8F53-5C95CD099356}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -444,165 +500,658 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>B3/(B4*B5)</f>
-        <v>0.48380990291711151</v>
+        <f t="shared" ref="B2:D2" si="0">B3/(B4*B5)</f>
+        <v>0.67370798858441172</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:E2" si="0">C3/(C4*C5)</f>
-        <v>0.36025803716500998</v>
+        <f t="shared" si="0"/>
+        <v>0.64795159529186275</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.32764879145532699</v>
+        <v>0.96824583655185437</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.25791327141886655</v>
+        <f>E3/(E4*E5)</f>
+        <v>0.30348848933344197</v>
       </c>
       <c r="F2">
         <f>F3/(F4*F5)</f>
-        <v>0.48380990291711151</v>
+        <v>0.32322996757772704</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:I2" si="1">G3/(G4*G5)</f>
-        <v>0.51528102293812161</v>
+        <v>0.29888435351104825</v>
       </c>
       <c r="H2">
         <f t="shared" si="1"/>
-        <v>0.45481242855185772</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="1"/>
-        <v>0.56228588238887389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.27705425792376603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F3">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="G3">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="H3">
-        <v>0.26</v>
-      </c>
-      <c r="I3">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>SQRT(0.38)</f>
-        <v>0.61644140029689765</v>
+        <f>SQRT(0.63)</f>
+        <v>0.79372539331937719</v>
       </c>
       <c r="C4">
-        <f>SQRT(0.46)</f>
-        <v>0.67823299831252681</v>
+        <f>SQRT(0.63)</f>
+        <v>0.79372539331937719</v>
       </c>
       <c r="D4">
-        <f>SQRT(0.46)</f>
-        <v>0.67823299831252681</v>
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
       </c>
       <c r="E4">
+        <f>SQRT(0.63)</f>
+        <v>0.79372539331937719</v>
+      </c>
+      <c r="F4">
         <f>SQRT(0.67)</f>
         <v>0.81853527718724506</v>
       </c>
-      <c r="F4">
-        <f>SQRT(0.38)</f>
-        <v>0.61644140029689765</v>
-      </c>
       <c r="G4">
-        <f t="shared" ref="G4:I4" si="2">SQRT(0.38)</f>
-        <v>0.61644140029689765</v>
+        <f>SQRT(0.86)</f>
+        <v>0.92736184954957035</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>0.61644140029689765</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>0.61644140029689765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SQRT(0.67)</f>
+        <v>0.81853527718724506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>SQRT(0.76)</f>
-        <v>0.87177978870813466</v>
+        <f>SQRT(0.74)</f>
+        <v>0.86023252670426265</v>
       </c>
       <c r="C5">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="D5">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="E5">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="F5">
+        <f>SQRT(0.63)</f>
+        <v>0.79372539331937719</v>
+      </c>
+      <c r="G5">
+        <f>SQRT(0.63)</f>
+        <v>0.79372539331937719</v>
+      </c>
+      <c r="H5">
+        <f>SQRT(0.63)</f>
+        <v>0.79372539331937719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="B8:D8" si="2">C9/(C10*C11)</f>
+        <v>0.7148284617513001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.96824583655185437</v>
+      </c>
+      <c r="E8">
+        <f>E9/(E10*E11)</f>
+        <v>0.58671882176893153</v>
+      </c>
+      <c r="F8">
+        <f>F9/(F10*F11)</f>
+        <v>0.61338785912206484</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:I8" si="3">G9/(G10*G11)</f>
+        <v>0.55155343162029025</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.41185537355888208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <v>0.44</v>
+      </c>
+      <c r="F9">
+        <v>0.46</v>
+      </c>
+      <c r="G9">
+        <v>0.44</v>
+      </c>
+      <c r="H9">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>SQRT(0.74)</f>
+        <v>0.86023252670426265</v>
+      </c>
+      <c r="D10">
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E10">
+        <f>SQRT(0.74)</f>
+        <v>0.86023252670426265</v>
+      </c>
+      <c r="F10">
+        <f>SQRT(0.74)</f>
+        <v>0.86023252670426265</v>
+      </c>
+      <c r="G10">
+        <f>SQRT(0.86)</f>
+        <v>0.92736184954957035</v>
+      </c>
+      <c r="H10">
         <f>SQRT(0.67)</f>
         <v>0.81853527718724506</v>
       </c>
-      <c r="D5">
-        <f>SQRT(0.81)</f>
-        <v>0.9</v>
-      </c>
-      <c r="E5">
-        <f>SQRT(0.81)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(0.76)</f>
-        <v>0.87177978870813466</v>
-      </c>
-      <c r="G5">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="D11">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="E11">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="F11">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="G11">
+        <f>SQRT(0.74)</f>
+        <v>0.86023252670426265</v>
+      </c>
+      <c r="H11">
+        <f>SQRT(0.74)</f>
+        <v>0.86023252670426265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="C14:E14" si="4">D15/(D16*D17)</f>
+        <v>1.0844353369380768</v>
+      </c>
+      <c r="E14">
+        <f>E15/(E16*E17)</f>
+        <v>0.50016444664151261</v>
+      </c>
+      <c r="F14">
+        <f>F15/(F16*F17)</f>
+        <v>0.5129891760425771</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:I14" si="5">G15/(G16*G17)</f>
+        <v>0.47018675161615187</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.3414739779425956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.84</v>
+      </c>
+      <c r="E15">
+        <v>0.39</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <v>0.39</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E16">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="F16">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="G16">
+        <f>SQRT(0.86)</f>
+        <v>0.92736184954957035</v>
+      </c>
+      <c r="H16">
         <f>SQRT(0.67)</f>
         <v>0.81853527718724506</v>
       </c>
-      <c r="H5">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="E17">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="F17">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="G17">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="H17">
+        <f>SQRT(0.8)</f>
+        <v>0.89442719099991586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>E21/(E22*E23)</f>
+        <v>0.58279423710861933</v>
+      </c>
+      <c r="F20">
+        <f>F21/(F22*F23)</f>
+        <v>0.58279423710861933</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:I20" si="6">G21/(G22*G23)</f>
+        <v>0.54786406960092748</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0.42320736951515897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.44</v>
+      </c>
+      <c r="F21">
+        <v>0.44</v>
+      </c>
+      <c r="G21">
+        <v>0.44</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="F22">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="G22">
         <f>SQRT(0.86)</f>
         <v>0.92736184954957035</v>
       </c>
-      <c r="I5">
-        <f>SQRT(0.7)</f>
-        <v>0.83666002653407556</v>
+      <c r="H22">
+        <f>SQRT(0.67)</f>
+        <v>0.81853527718724506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="F23">
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="G23">
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="H23">
+        <f>SQRT(0.75)</f>
+        <v>0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>F27/(F28*F29)</f>
+        <v>1.2631578947368423</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:H26" si="7">G27/(G28*G29)</f>
+        <v>0.71741750919317548</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>0.63062083650511169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.96</v>
+      </c>
+      <c r="G27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="G28">
+        <f>SQRT(0.86)</f>
+        <v>0.92736184954957035</v>
+      </c>
+      <c r="H28">
+        <f>SQRT(0.67)</f>
+        <v>0.81853527718724506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="G29">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="H29">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:H32" si="8">G33/(G34*G35)</f>
+        <v>0.70504824179329317</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>0.68667602197223276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H33">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>SQRT(0.86)</f>
+        <v>0.92736184954957035</v>
+      </c>
+      <c r="H34">
+        <f>SQRT(0.67)</f>
+        <v>0.81853527718724506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+      <c r="H35">
+        <f>SQRT(0.76)</f>
+        <v>0.87177978870813466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="G38:H38" si="9">H39/(H40*H41)</f>
+        <v>0.43473770952689716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f>SQRT(0.67)</f>
+        <v>0.81853527718724506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f>SQRT(0.86)</f>
+        <v>0.92736184954957035</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>